--- a/Tests/Validation/Wheat/data/Dookie2024.xlsx
+++ b/Tests/Validation/Wheat/data/Dookie2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="22">
   <si>
     <t>Wheat.Height</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Wheat.Phenology.HaunStage</t>
+  </si>
+  <si>
+    <t>Wheat.Phenology.Stage</t>
   </si>
   <si>
     <t>SimulationName</t>
@@ -440,18 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:F405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -462,10 +465,13 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>45443</v>
@@ -474,9 +480,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>45460</v>
@@ -485,9 +491,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>45474</v>
@@ -496,9 +502,9 @@
         <v>0.2425</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>45487</v>
@@ -507,9 +513,9 @@
         <v>0.3425</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>45502</v>
@@ -518,9 +524,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>45513</v>
@@ -529,9 +535,9 @@
         <v>0.5475</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>45526</v>
@@ -540,9 +546,9 @@
         <v>0.6775</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>45548</v>
@@ -551,9 +557,9 @@
         <v>0.835</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>45559</v>
@@ -562,9 +568,9 @@
         <v>0.7925</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>45571</v>
@@ -573,9 +579,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>45582</v>
@@ -584,9 +590,9 @@
         <v>0.5775</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>45594</v>
@@ -595,9 +601,9 @@
         <v>0.385</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>45609</v>
@@ -606,9 +612,9 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>45443</v>
@@ -617,9 +623,9 @@
         <v>0.285</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>45460</v>
@@ -630,7 +636,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>45474</v>
@@ -641,7 +647,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
         <v>45487</v>
@@ -652,7 +658,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2">
         <v>45502</v>
@@ -663,7 +669,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>45513</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>45526</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>45548</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
         <v>45559</v>
@@ -707,7 +713,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>45571</v>
@@ -718,7 +724,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>45582</v>
@@ -729,7 +735,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
         <v>45594</v>
@@ -740,7 +746,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
         <v>45609</v>
@@ -751,7 +757,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>45443</v>
@@ -762,7 +768,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
         <v>45460</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
         <v>45474</v>
@@ -784,7 +790,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <v>45487</v>
@@ -795,7 +801,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>45502</v>
@@ -806,7 +812,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>45513</v>
@@ -817,7 +823,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>45526</v>
@@ -828,7 +834,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>45548</v>
@@ -839,7 +845,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>45559</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2">
         <v>45571</v>
@@ -861,7 +867,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2">
         <v>45582</v>
@@ -872,7 +878,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2">
         <v>45594</v>
@@ -883,7 +889,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
         <v>45609</v>
@@ -894,7 +900,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
         <v>45443</v>
@@ -905,7 +911,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
         <v>45460</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2">
         <v>45474</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2">
         <v>45487</v>
@@ -938,7 +944,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2">
         <v>45502</v>
@@ -949,7 +955,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
         <v>45513</v>
@@ -960,7 +966,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2">
         <v>45526</v>
@@ -971,7 +977,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2">
         <v>45548</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2">
         <v>45559</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2">
         <v>45571</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2">
         <v>45582</v>
@@ -1015,7 +1021,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2">
         <v>45594</v>
@@ -1026,7 +1032,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53" s="2">
         <v>45609</v>
@@ -1037,7 +1043,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2">
         <v>45443</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2">
         <v>45460</v>
@@ -1059,7 +1065,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2">
         <v>45474</v>
@@ -1070,7 +1076,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2">
         <v>45487</v>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2">
         <v>45502</v>
@@ -1092,7 +1098,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2">
         <v>45513</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2">
         <v>45526</v>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2">
         <v>45548</v>
@@ -1125,7 +1131,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2">
         <v>45559</v>
@@ -1136,7 +1142,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2">
         <v>45571</v>
@@ -1147,7 +1153,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2">
         <v>45582</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>45594</v>
@@ -1169,7 +1175,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2">
         <v>45609</v>
@@ -1180,7 +1186,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2">
         <v>45443</v>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2">
         <v>45460</v>
@@ -1202,7 +1208,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" s="2">
         <v>45474</v>
@@ -1213,7 +1219,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" s="2">
         <v>45487</v>
@@ -1224,7 +1230,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2">
         <v>45502</v>
@@ -1235,7 +1241,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2">
         <v>45513</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2">
         <v>45526</v>
@@ -1257,7 +1263,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2">
         <v>45548</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" s="2">
         <v>45559</v>
@@ -1279,7 +1285,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2">
         <v>45571</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2">
         <v>45582</v>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" s="2">
         <v>45594</v>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" s="2">
         <v>45609</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80" s="2">
         <v>45443</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B81" s="2">
         <v>45460</v>
@@ -1345,7 +1351,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" s="2">
         <v>45474</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="2">
         <v>45487</v>
@@ -1367,7 +1373,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B84" s="2">
         <v>45502</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B85" s="2">
         <v>45513</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" s="2">
         <v>45526</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" s="2">
         <v>45548</v>
@@ -1411,7 +1417,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="2">
         <v>45559</v>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89" s="2">
         <v>45571</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" s="2">
         <v>45582</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91" s="2">
         <v>45594</v>
@@ -1455,7 +1461,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B92" s="2">
         <v>45609</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="2">
         <v>45443</v>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" s="2">
         <v>45460</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" s="2">
         <v>45474</v>
@@ -1499,7 +1505,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" s="2">
         <v>45487</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" s="2">
         <v>45502</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" s="2">
         <v>45513</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" s="2">
         <v>45526</v>
@@ -1543,7 +1549,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" s="2">
         <v>45548</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" s="2">
         <v>45559</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B102" s="2">
         <v>45571</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" s="2">
         <v>45582</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" s="2">
         <v>45594</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B105" s="2">
         <v>45609</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106" s="2">
         <v>45443</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B107" s="2">
         <v>45460</v>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" s="2">
         <v>45474</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" s="2">
         <v>45487</v>
@@ -1653,7 +1659,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" s="2">
         <v>45502</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" s="2">
         <v>45513</v>
@@ -1675,7 +1681,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B112" s="2">
         <v>45526</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B113" s="2">
         <v>45548</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" s="2">
         <v>45559</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B115" s="2">
         <v>45571</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" s="2">
         <v>45582</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" s="2">
         <v>45594</v>
@@ -1741,7 +1747,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" s="2">
         <v>45609</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B119" s="2">
         <v>45443</v>
@@ -1763,7 +1769,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B120" s="2">
         <v>45460</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B121" s="2">
         <v>45474</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" s="2">
         <v>45487</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B123" s="2">
         <v>45502</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124" s="2">
         <v>45513</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B125" s="2">
         <v>45526</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B126" s="2">
         <v>45548</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127" s="2">
         <v>45559</v>
@@ -1851,7 +1857,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128" s="2">
         <v>45571</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129" s="2">
         <v>45582</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130" s="2">
         <v>45594</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131" s="2">
         <v>45609</v>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B132" s="2">
         <v>45443</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B133" s="2">
         <v>45460</v>
@@ -1917,7 +1923,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B134" s="2">
         <v>45474</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B135" s="2">
         <v>45487</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B136" s="2">
         <v>45502</v>
@@ -1950,7 +1956,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B137" s="2">
         <v>45513</v>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" s="2">
         <v>45526</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B139" s="2">
         <v>45548</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" s="2">
         <v>45559</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B141" s="2">
         <v>45571</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142" s="2">
         <v>45582</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" s="2">
         <v>45594</v>
@@ -2027,7 +2033,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144" s="2">
         <v>45609</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2">
         <v>45443</v>
@@ -2049,7 +2055,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B146" s="2">
         <v>45460</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B147" s="2">
         <v>45474</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B148" s="2">
         <v>45487</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B149" s="2">
         <v>45502</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B150" s="2">
         <v>45513</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B151" s="2">
         <v>45526</v>
@@ -2115,7 +2121,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B152" s="2">
         <v>45548</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B153" s="2">
         <v>45559</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B154" s="2">
         <v>45571</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B155" s="2">
         <v>45582</v>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B156" s="2">
         <v>45594</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B157" s="2">
         <v>45609</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B158" s="2">
         <v>45443</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B159" s="2">
         <v>45460</v>
@@ -2203,7 +2209,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B160" s="2">
         <v>45474</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" s="2">
         <v>45487</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B162" s="2">
         <v>45502</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B163" s="2">
         <v>45513</v>
@@ -2247,7 +2253,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B164" s="2">
         <v>45526</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B165" s="2">
         <v>45548</v>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" s="2">
         <v>45559</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B167" s="2">
         <v>45571</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B168" s="2">
         <v>45582</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B169" s="2">
         <v>45594</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B170" s="2">
         <v>45609</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B171" s="2">
         <v>45443</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B172" s="2">
         <v>45460</v>
@@ -2346,7 +2352,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B173" s="2">
         <v>45474</v>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B174" s="2">
         <v>45487</v>
@@ -2368,7 +2374,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B175" s="2">
         <v>45502</v>
@@ -2379,7 +2385,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B176" s="2">
         <v>45513</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B177" s="2">
         <v>45526</v>
@@ -2401,7 +2407,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B178" s="2">
         <v>45548</v>
@@ -2412,7 +2418,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B179" s="2">
         <v>45559</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B180" s="2">
         <v>45571</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B181" s="2">
         <v>45582</v>
@@ -2445,7 +2451,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B182" s="2">
         <v>45594</v>
@@ -2456,7 +2462,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B183" s="2">
         <v>45609</v>
@@ -2467,7 +2473,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B184" s="2">
         <v>45443</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B185" s="2">
         <v>45460</v>
@@ -2489,7 +2495,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B186" s="2">
         <v>45474</v>
@@ -2500,7 +2506,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B187" s="2">
         <v>45487</v>
@@ -2511,7 +2517,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B188" s="2">
         <v>45502</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B189" s="2">
         <v>45513</v>
@@ -2533,7 +2539,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190" s="2">
         <v>45526</v>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B191" s="2">
         <v>45548</v>
@@ -2555,7 +2561,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B192" s="2">
         <v>45559</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B193" s="2">
         <v>45571</v>
@@ -2577,7 +2583,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B194" s="2">
         <v>45582</v>
@@ -2588,7 +2594,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B195" s="2">
         <v>45594</v>
@@ -2599,7 +2605,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B196" s="2">
         <v>45609</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B197" s="2">
         <v>45443</v>
@@ -2621,7 +2627,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B198" s="2">
         <v>45460</v>
@@ -2632,7 +2638,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B199" s="2">
         <v>45474</v>
@@ -2643,7 +2649,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B200" s="2">
         <v>45487</v>
@@ -2654,7 +2660,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B201" s="2">
         <v>45502</v>
@@ -2665,7 +2671,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B202" s="2">
         <v>45513</v>
@@ -2676,7 +2682,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B203" s="2">
         <v>45526</v>
@@ -2687,7 +2693,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B204" s="2">
         <v>45548</v>
@@ -2698,7 +2704,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B205" s="2">
         <v>45559</v>
@@ -2709,7 +2715,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B206" s="2">
         <v>45571</v>
@@ -2720,7 +2726,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B207" s="2">
         <v>45582</v>
@@ -2731,7 +2737,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B208" s="2">
         <v>45594</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B209" s="2">
         <v>45609</v>
@@ -2753,7 +2759,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B210" s="2">
         <v>45467</v>
@@ -2764,7 +2770,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B211" s="2">
         <v>45477</v>
@@ -2775,7 +2781,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B212" s="2">
         <v>45488</v>
@@ -2786,7 +2792,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B213" s="2">
         <v>45499</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B214" s="2">
         <v>45513</v>
@@ -2808,7 +2814,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B215" s="2">
         <v>45523</v>
@@ -2819,7 +2825,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" s="2">
         <v>45535</v>
@@ -2830,7 +2836,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" s="2">
         <v>45549</v>
@@ -2841,7 +2847,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B218" s="2">
         <v>45436</v>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B219" s="2">
         <v>45446</v>
@@ -2863,7 +2869,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B220" s="2">
         <v>45457</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B221" s="2">
         <v>45468</v>
@@ -2885,7 +2891,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B222" s="2">
         <v>45483</v>
@@ -2896,7 +2902,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B223" s="2">
         <v>45496</v>
@@ -2907,7 +2913,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B224" s="2">
         <v>45512</v>
@@ -2918,7 +2924,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B225" s="2">
         <v>45522</v>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B226" s="2">
         <v>45532</v>
@@ -2940,7 +2946,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B227" s="2">
         <v>45549</v>
@@ -2951,7 +2957,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B228" s="2">
         <v>45467</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B229" s="2">
         <v>45477</v>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B230" s="2">
         <v>45488</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B231" s="2">
         <v>45499</v>
@@ -2995,7 +3001,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B232" s="2">
         <v>45513</v>
@@ -3006,7 +3012,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B233" s="2">
         <v>45523</v>
@@ -3017,7 +3023,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B234" s="2">
         <v>45535</v>
@@ -3028,7 +3034,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B235" s="2">
         <v>45549</v>
@@ -3039,7 +3045,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B236" s="2">
         <v>45436</v>
@@ -3050,7 +3056,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B237" s="2">
         <v>45446</v>
@@ -3061,7 +3067,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B238" s="2">
         <v>45457</v>
@@ -3072,7 +3078,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B239" s="2">
         <v>45468</v>
@@ -3083,7 +3089,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B240" s="2">
         <v>45483</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B241" s="2">
         <v>45496</v>
@@ -3105,7 +3111,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B242" s="2">
         <v>45512</v>
@@ -3116,7 +3122,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B243" s="2">
         <v>45522</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B244" s="2">
         <v>45532</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B245" s="2">
         <v>45549</v>
@@ -3149,7 +3155,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B246" s="2">
         <v>45559</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B247" s="2">
         <v>45467</v>
@@ -3171,7 +3177,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B248" s="2">
         <v>45477</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B249" s="2">
         <v>45488</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B250" s="2">
         <v>45499</v>
@@ -3204,7 +3210,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B251" s="2">
         <v>45513</v>
@@ -3215,7 +3221,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B252" s="2">
         <v>45523</v>
@@ -3226,7 +3232,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B253" s="2">
         <v>45535</v>
@@ -3237,7 +3243,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B254" s="2">
         <v>45549</v>
@@ -3248,7 +3254,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B255" s="2">
         <v>45467</v>
@@ -3259,7 +3265,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B256" s="2">
         <v>45477</v>
@@ -3270,7 +3276,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B257" s="2">
         <v>45488</v>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B258" s="2">
         <v>45499</v>
@@ -3292,7 +3298,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B259" s="2">
         <v>45513</v>
@@ -3303,7 +3309,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B260" s="2">
         <v>45523</v>
@@ -3314,7 +3320,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B261" s="2">
         <v>45535</v>
@@ -3325,7 +3331,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B262" s="2">
         <v>45549</v>
@@ -3336,7 +3342,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B263" s="2">
         <v>45436</v>
@@ -3347,7 +3353,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B264" s="2">
         <v>45446</v>
@@ -3358,7 +3364,7 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B265" s="2">
         <v>45457</v>
@@ -3369,7 +3375,7 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B266" s="2">
         <v>45468</v>
@@ -3380,7 +3386,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B267" s="2">
         <v>45483</v>
@@ -3391,7 +3397,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B268" s="2">
         <v>45496</v>
@@ -3402,7 +3408,7 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B269" s="2">
         <v>45512</v>
@@ -3413,7 +3419,7 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B270" s="2">
         <v>45522</v>
@@ -3424,7 +3430,7 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B271" s="2">
         <v>45532</v>
@@ -3435,7 +3441,7 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B272" s="2">
         <v>45549</v>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B273" s="2">
         <v>45436</v>
@@ -3457,7 +3463,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B274" s="2">
         <v>45446</v>
@@ -3468,7 +3474,7 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B275" s="2">
         <v>45457</v>
@@ -3479,7 +3485,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B276" s="2">
         <v>45468</v>
@@ -3490,7 +3496,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B277" s="2">
         <v>45483</v>
@@ -3501,7 +3507,7 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B278" s="2">
         <v>45496</v>
@@ -3512,7 +3518,7 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B279" s="2">
         <v>45512</v>
@@ -3523,7 +3529,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B280" s="2">
         <v>45522</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B281" s="2">
         <v>45532</v>
@@ -3545,7 +3551,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B282" s="2">
         <v>45549</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B283" s="2">
         <v>45436</v>
@@ -3567,7 +3573,7 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B284" s="2">
         <v>45446</v>
@@ -3578,7 +3584,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B285" s="2">
         <v>45457</v>
@@ -3589,7 +3595,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B286" s="2">
         <v>45468</v>
@@ -3600,7 +3606,7 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B287" s="2">
         <v>45483</v>
@@ -3611,7 +3617,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B288" s="2">
         <v>45496</v>
@@ -3622,7 +3628,7 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B289" s="2">
         <v>45512</v>
@@ -3633,7 +3639,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B290" s="2">
         <v>45522</v>
@@ -3644,7 +3650,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B291" s="2">
         <v>45532</v>
@@ -3655,7 +3661,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B292" s="2">
         <v>45549</v>
@@ -3666,7 +3672,7 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B293" s="2">
         <v>45467</v>
@@ -3677,7 +3683,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B294" s="2">
         <v>45477</v>
@@ -3688,7 +3694,7 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B295" s="2">
         <v>45488</v>
@@ -3699,7 +3705,7 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B296" s="2">
         <v>45499</v>
@@ -3710,7 +3716,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B297" s="2">
         <v>45513</v>
@@ -3721,7 +3727,7 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B298" s="2">
         <v>45523</v>
@@ -3732,7 +3738,7 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B299" s="2">
         <v>45535</v>
@@ -3743,7 +3749,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B300" s="2">
         <v>45549</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B301" s="2">
         <v>45467</v>
@@ -3765,7 +3771,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B302" s="2">
         <v>45477</v>
@@ -3776,7 +3782,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B303" s="2">
         <v>45488</v>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B304" s="2">
         <v>45499</v>
@@ -3798,7 +3804,7 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B305" s="2">
         <v>45513</v>
@@ -3809,7 +3815,7 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B306" s="2">
         <v>45523</v>
@@ -3820,7 +3826,7 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B307" s="2">
         <v>45535</v>
@@ -3831,7 +3837,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B308" s="2">
         <v>45549</v>
@@ -3842,7 +3848,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B309" s="2">
         <v>45559</v>
@@ -3853,7 +3859,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B310" s="2">
         <v>45436</v>
@@ -3864,7 +3870,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B311" s="2">
         <v>45446</v>
@@ -3875,7 +3881,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B312" s="2">
         <v>45457</v>
@@ -3886,7 +3892,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B313" s="2">
         <v>45468</v>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B314" s="2">
         <v>45483</v>
@@ -3908,7 +3914,7 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B315" s="2">
         <v>45496</v>
@@ -3919,7 +3925,7 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B316" s="2">
         <v>45512</v>
@@ -3930,7 +3936,7 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B317" s="2">
         <v>45522</v>
@@ -3941,7 +3947,7 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B318" s="2">
         <v>45532</v>
@@ -3952,7 +3958,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B319" s="2">
         <v>45549</v>
@@ -3963,7 +3969,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B320" s="2">
         <v>45436</v>
@@ -3974,7 +3980,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B321" s="2">
         <v>45446</v>
@@ -3985,7 +3991,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B322" s="2">
         <v>45457</v>
@@ -3996,7 +4002,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B323" s="2">
         <v>45468</v>
@@ -4007,7 +4013,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B324" s="2">
         <v>45483</v>
@@ -4018,7 +4024,7 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B325" s="2">
         <v>45496</v>
@@ -4029,7 +4035,7 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B326" s="2">
         <v>45512</v>
@@ -4040,7 +4046,7 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B327" s="2">
         <v>45522</v>
@@ -4051,7 +4057,7 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B328" s="2">
         <v>45532</v>
@@ -4062,7 +4068,7 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B329" s="2">
         <v>45549</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B330" s="2">
         <v>45467</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B331" s="2">
         <v>45477</v>
@@ -4095,7 +4101,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B332" s="2">
         <v>45488</v>
@@ -4106,7 +4112,7 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B333" s="2">
         <v>45499</v>
@@ -4117,7 +4123,7 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B334" s="2">
         <v>45513</v>
@@ -4128,7 +4134,7 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B335" s="2">
         <v>45523</v>
@@ -4139,7 +4145,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B336" s="2">
         <v>45535</v>
@@ -4150,7 +4156,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B337" s="2">
         <v>45549</v>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B338" s="2">
         <v>45559</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B339" s="2">
         <v>45436</v>
@@ -4183,7 +4189,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B340" s="2">
         <v>45446</v>
@@ -4194,7 +4200,7 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B341" s="2">
         <v>45457</v>
@@ -4205,7 +4211,7 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B342" s="2">
         <v>45468</v>
@@ -4216,7 +4222,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B343" s="2">
         <v>45483</v>
@@ -4227,7 +4233,7 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B344" s="2">
         <v>45496</v>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B345" s="2">
         <v>45512</v>
@@ -4249,7 +4255,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B346" s="2">
         <v>45522</v>
@@ -4260,7 +4266,7 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B347" s="2">
         <v>45532</v>
@@ -4271,7 +4277,7 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B348" s="2">
         <v>45549</v>
@@ -4282,7 +4288,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B349" s="2">
         <v>45559</v>
@@ -4293,7 +4299,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B350" s="2">
         <v>45467</v>
@@ -4304,7 +4310,7 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B351" s="2">
         <v>45477</v>
@@ -4315,7 +4321,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B352" s="2">
         <v>45488</v>
@@ -4324,9 +4330,9 @@
         <v>5.025</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B353" s="2">
         <v>45499</v>
@@ -4335,9 +4341,9 @@
         <v>5.941666666666666</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B354" s="2">
         <v>45513</v>
@@ -4346,9 +4352,9 @@
         <v>6.891666666666667</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:6">
       <c r="A355" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B355" s="2">
         <v>45523</v>
@@ -4357,9 +4363,9 @@
         <v>7.875</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:6">
       <c r="A356" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B356" s="2">
         <v>45535</v>
@@ -4368,15 +4374,543 @@
         <v>9.074999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B357" s="2">
         <v>45549</v>
       </c>
       <c r="E357">
         <v>9.916666666666666</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="2">
+        <v>45438</v>
+      </c>
+      <c r="F358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" s="2">
+        <v>45409</v>
+      </c>
+      <c r="F359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B360" s="2">
+        <v>45439</v>
+      </c>
+      <c r="F360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" s="2">
+        <v>45409</v>
+      </c>
+      <c r="F361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" s="2">
+        <v>45439</v>
+      </c>
+      <c r="F362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B363" s="2">
+        <v>45437</v>
+      </c>
+      <c r="F363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B364" s="2">
+        <v>45410</v>
+      </c>
+      <c r="F364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B365" s="2">
+        <v>45416</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B366" s="2">
+        <v>45414</v>
+      </c>
+      <c r="F366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="2">
+        <v>45439</v>
+      </c>
+      <c r="F367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B368" s="2">
+        <v>45439</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B369" s="2">
+        <v>45410</v>
+      </c>
+      <c r="F369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="2">
+        <v>45413</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" s="2">
+        <v>45438</v>
+      </c>
+      <c r="F371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B372" s="2">
+        <v>45414</v>
+      </c>
+      <c r="F372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B373" s="2">
+        <v>45438</v>
+      </c>
+      <c r="F373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="2">
+        <v>45547</v>
+      </c>
+      <c r="F374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" s="2">
+        <v>45543</v>
+      </c>
+      <c r="F375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="2">
+        <v>45545</v>
+      </c>
+      <c r="F376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="2">
+        <v>45547</v>
+      </c>
+      <c r="F377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" s="2">
+        <v>45541</v>
+      </c>
+      <c r="F378">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="2">
+        <v>45549</v>
+      </c>
+      <c r="F379">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="2">
+        <v>45538</v>
+      </c>
+      <c r="F380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381" s="2">
+        <v>45545</v>
+      </c>
+      <c r="F381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B382" s="2">
+        <v>45548</v>
+      </c>
+      <c r="F382">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383" s="2">
+        <v>45542</v>
+      </c>
+      <c r="F383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B384" s="2">
+        <v>45546</v>
+      </c>
+      <c r="F384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B385" s="2">
+        <v>45544</v>
+      </c>
+      <c r="F385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386" s="2">
+        <v>45539</v>
+      </c>
+      <c r="F386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B387" s="2">
+        <v>45546</v>
+      </c>
+      <c r="F387">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B388" s="2">
+        <v>45546</v>
+      </c>
+      <c r="F388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B389" s="2">
+        <v>45546</v>
+      </c>
+      <c r="F389">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" s="2">
+        <v>45568</v>
+      </c>
+      <c r="F390">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B391" s="2">
+        <v>45565</v>
+      </c>
+      <c r="F391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" s="2">
+        <v>45566</v>
+      </c>
+      <c r="F392">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" s="2">
+        <v>45568</v>
+      </c>
+      <c r="F393">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" s="2">
+        <v>45567</v>
+      </c>
+      <c r="F395">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F396">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397" s="2">
+        <v>45566</v>
+      </c>
+      <c r="F397">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B398" s="2">
+        <v>45567</v>
+      </c>
+      <c r="F398">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B399" s="2">
+        <v>45561</v>
+      </c>
+      <c r="F399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B400" s="2">
+        <v>45567</v>
+      </c>
+      <c r="F400">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B401" s="2">
+        <v>45566</v>
+      </c>
+      <c r="F401">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" s="2">
+        <v>45560</v>
+      </c>
+      <c r="F402">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" s="2">
+        <v>45566</v>
+      </c>
+      <c r="F403">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B404" s="2">
+        <v>45567</v>
+      </c>
+      <c r="F404">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B405" s="2">
+        <v>45567</v>
+      </c>
+      <c r="F405">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Validation/Wheat/data/Dookie2024.xlsx
+++ b/Tests/Validation/Wheat/data/Dookie2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="33">
   <si>
     <t>Wheat.Height</t>
   </si>
@@ -26,6 +26,39 @@
   </si>
   <si>
     <t>Wheat.Phenology.Stage</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.CoverTotal</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Height</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Live.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Leaf.Dead.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Spike.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Grain.Wt</t>
+  </si>
+  <si>
+    <t>Wheat.Grain.Size</t>
+  </si>
+  <si>
+    <t>Wheat.Grain.Number</t>
+  </si>
+  <si>
+    <t>Wheat.Ear.Wt</t>
   </si>
   <si>
     <t>SimulationName</t>
@@ -443,18 +476,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F405"/>
+  <dimension ref="A1:Q453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -468,10 +501,43 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>45443</v>
@@ -480,9 +546,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>45460</v>
@@ -491,9 +557,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>45474</v>
@@ -502,9 +568,9 @@
         <v>0.2425</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>45487</v>
@@ -513,9 +579,9 @@
         <v>0.3425</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>45502</v>
@@ -524,9 +590,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>45513</v>
@@ -535,9 +601,9 @@
         <v>0.5475</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>45526</v>
@@ -546,9 +612,9 @@
         <v>0.6775</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>45548</v>
@@ -557,9 +623,9 @@
         <v>0.835</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>45559</v>
@@ -568,9 +634,9 @@
         <v>0.7925</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>45571</v>
@@ -579,9 +645,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>45582</v>
@@ -590,9 +656,9 @@
         <v>0.5775</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>45594</v>
@@ -601,9 +667,9 @@
         <v>0.385</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>45609</v>
@@ -612,9 +678,9 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>45443</v>
@@ -623,9 +689,9 @@
         <v>0.285</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>45460</v>
@@ -636,7 +702,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>45474</v>
@@ -647,7 +713,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>45487</v>
@@ -658,7 +724,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>45502</v>
@@ -669,7 +735,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>45513</v>
@@ -680,7 +746,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>45526</v>
@@ -691,7 +757,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
         <v>45548</v>
@@ -702,7 +768,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2">
         <v>45559</v>
@@ -713,7 +779,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
         <v>45571</v>
@@ -724,7 +790,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <v>45582</v>
@@ -735,7 +801,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2">
         <v>45594</v>
@@ -746,7 +812,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
         <v>45609</v>
@@ -757,7 +823,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
         <v>45443</v>
@@ -768,7 +834,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
         <v>45460</v>
@@ -779,7 +845,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>45474</v>
@@ -790,7 +856,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
         <v>45487</v>
@@ -801,7 +867,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
         <v>45502</v>
@@ -812,7 +878,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
         <v>45513</v>
@@ -823,7 +889,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2">
         <v>45526</v>
@@ -834,7 +900,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2">
         <v>45548</v>
@@ -845,7 +911,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2">
         <v>45559</v>
@@ -856,7 +922,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2">
         <v>45571</v>
@@ -867,7 +933,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2">
         <v>45582</v>
@@ -878,7 +944,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2">
         <v>45594</v>
@@ -889,7 +955,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2">
         <v>45609</v>
@@ -900,7 +966,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
         <v>45443</v>
@@ -911,7 +977,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2">
         <v>45460</v>
@@ -922,7 +988,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2">
         <v>45474</v>
@@ -933,7 +999,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
         <v>45487</v>
@@ -944,7 +1010,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B45" s="2">
         <v>45502</v>
@@ -955,7 +1021,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2">
         <v>45513</v>
@@ -966,7 +1032,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2">
         <v>45526</v>
@@ -977,7 +1043,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2">
         <v>45548</v>
@@ -988,7 +1054,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B49" s="2">
         <v>45559</v>
@@ -999,7 +1065,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2">
         <v>45571</v>
@@ -1010,7 +1076,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2">
         <v>45582</v>
@@ -1021,7 +1087,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>45594</v>
@@ -1032,7 +1098,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B53" s="2">
         <v>45609</v>
@@ -1043,7 +1109,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B54" s="2">
         <v>45443</v>
@@ -1054,7 +1120,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2">
         <v>45460</v>
@@ -1065,7 +1131,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2">
         <v>45474</v>
@@ -1076,7 +1142,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>45487</v>
@@ -1087,7 +1153,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2">
         <v>45502</v>
@@ -1098,7 +1164,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2">
         <v>45513</v>
@@ -1109,7 +1175,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B60" s="2">
         <v>45526</v>
@@ -1120,7 +1186,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B61" s="2">
         <v>45548</v>
@@ -1131,7 +1197,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B62" s="2">
         <v>45559</v>
@@ -1142,7 +1208,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
         <v>45571</v>
@@ -1153,7 +1219,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2">
         <v>45582</v>
@@ -1164,7 +1230,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B65" s="2">
         <v>45594</v>
@@ -1175,7 +1241,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B66" s="2">
         <v>45609</v>
@@ -1186,7 +1252,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B67" s="2">
         <v>45443</v>
@@ -1197,7 +1263,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B68" s="2">
         <v>45460</v>
@@ -1208,7 +1274,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B69" s="2">
         <v>45474</v>
@@ -1219,7 +1285,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B70" s="2">
         <v>45487</v>
@@ -1230,7 +1296,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B71" s="2">
         <v>45502</v>
@@ -1241,7 +1307,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B72" s="2">
         <v>45513</v>
@@ -1252,7 +1318,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B73" s="2">
         <v>45526</v>
@@ -1263,7 +1329,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B74" s="2">
         <v>45548</v>
@@ -1274,7 +1340,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B75" s="2">
         <v>45559</v>
@@ -1285,7 +1351,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B76" s="2">
         <v>45571</v>
@@ -1296,7 +1362,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B77" s="2">
         <v>45582</v>
@@ -1307,7 +1373,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B78" s="2">
         <v>45594</v>
@@ -1318,7 +1384,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2">
         <v>45609</v>
@@ -1329,7 +1395,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2">
         <v>45443</v>
@@ -1340,7 +1406,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B81" s="2">
         <v>45460</v>
@@ -1351,7 +1417,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B82" s="2">
         <v>45474</v>
@@ -1362,7 +1428,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B83" s="2">
         <v>45487</v>
@@ -1373,7 +1439,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2">
         <v>45502</v>
@@ -1384,7 +1450,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2">
         <v>45513</v>
@@ -1395,7 +1461,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B86" s="2">
         <v>45526</v>
@@ -1406,7 +1472,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B87" s="2">
         <v>45548</v>
@@ -1417,7 +1483,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B88" s="2">
         <v>45559</v>
@@ -1428,7 +1494,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B89" s="2">
         <v>45571</v>
@@ -1439,7 +1505,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B90" s="2">
         <v>45582</v>
@@ -1450,7 +1516,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2">
         <v>45594</v>
@@ -1461,7 +1527,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B92" s="2">
         <v>45609</v>
@@ -1472,7 +1538,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B93" s="2">
         <v>45443</v>
@@ -1483,7 +1549,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B94" s="2">
         <v>45460</v>
@@ -1494,7 +1560,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B95" s="2">
         <v>45474</v>
@@ -1505,7 +1571,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B96" s="2">
         <v>45487</v>
@@ -1516,7 +1582,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B97" s="2">
         <v>45502</v>
@@ -1527,7 +1593,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B98" s="2">
         <v>45513</v>
@@ -1538,7 +1604,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B99" s="2">
         <v>45526</v>
@@ -1549,7 +1615,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B100" s="2">
         <v>45548</v>
@@ -1560,7 +1626,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B101" s="2">
         <v>45559</v>
@@ -1571,7 +1637,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B102" s="2">
         <v>45571</v>
@@ -1582,7 +1648,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B103" s="2">
         <v>45582</v>
@@ -1593,7 +1659,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2">
         <v>45594</v>
@@ -1604,7 +1670,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B105" s="2">
         <v>45609</v>
@@ -1615,7 +1681,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B106" s="2">
         <v>45443</v>
@@ -1626,7 +1692,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B107" s="2">
         <v>45460</v>
@@ -1637,7 +1703,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B108" s="2">
         <v>45474</v>
@@ -1648,7 +1714,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B109" s="2">
         <v>45487</v>
@@ -1659,7 +1725,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B110" s="2">
         <v>45502</v>
@@ -1670,7 +1736,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B111" s="2">
         <v>45513</v>
@@ -1681,7 +1747,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B112" s="2">
         <v>45526</v>
@@ -1692,7 +1758,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B113" s="2">
         <v>45548</v>
@@ -1703,7 +1769,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B114" s="2">
         <v>45559</v>
@@ -1714,7 +1780,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B115" s="2">
         <v>45571</v>
@@ -1725,7 +1791,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B116" s="2">
         <v>45582</v>
@@ -1736,7 +1802,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B117" s="2">
         <v>45594</v>
@@ -1747,7 +1813,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B118" s="2">
         <v>45609</v>
@@ -1758,7 +1824,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B119" s="2">
         <v>45443</v>
@@ -1769,7 +1835,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B120" s="2">
         <v>45460</v>
@@ -1780,7 +1846,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B121" s="2">
         <v>45474</v>
@@ -1791,7 +1857,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B122" s="2">
         <v>45487</v>
@@ -1802,7 +1868,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B123" s="2">
         <v>45502</v>
@@ -1813,7 +1879,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B124" s="2">
         <v>45513</v>
@@ -1824,7 +1890,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B125" s="2">
         <v>45526</v>
@@ -1835,7 +1901,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B126" s="2">
         <v>45548</v>
@@ -1846,7 +1912,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B127" s="2">
         <v>45559</v>
@@ -1857,7 +1923,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B128" s="2">
         <v>45571</v>
@@ -1868,7 +1934,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B129" s="2">
         <v>45582</v>
@@ -1879,7 +1945,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B130" s="2">
         <v>45594</v>
@@ -1890,7 +1956,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B131" s="2">
         <v>45609</v>
@@ -1901,7 +1967,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B132" s="2">
         <v>45443</v>
@@ -1912,7 +1978,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B133" s="2">
         <v>45460</v>
@@ -1923,7 +1989,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B134" s="2">
         <v>45474</v>
@@ -1934,7 +2000,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B135" s="2">
         <v>45487</v>
@@ -1945,7 +2011,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B136" s="2">
         <v>45502</v>
@@ -1956,7 +2022,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B137" s="2">
         <v>45513</v>
@@ -1967,7 +2033,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B138" s="2">
         <v>45526</v>
@@ -1978,7 +2044,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B139" s="2">
         <v>45548</v>
@@ -1989,7 +2055,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B140" s="2">
         <v>45559</v>
@@ -2000,7 +2066,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B141" s="2">
         <v>45571</v>
@@ -2011,7 +2077,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B142" s="2">
         <v>45582</v>
@@ -2022,7 +2088,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B143" s="2">
         <v>45594</v>
@@ -2033,7 +2099,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B144" s="2">
         <v>45609</v>
@@ -2044,7 +2110,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B145" s="2">
         <v>45443</v>
@@ -2055,7 +2121,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B146" s="2">
         <v>45460</v>
@@ -2066,7 +2132,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B147" s="2">
         <v>45474</v>
@@ -2077,7 +2143,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B148" s="2">
         <v>45487</v>
@@ -2088,7 +2154,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B149" s="2">
         <v>45502</v>
@@ -2099,7 +2165,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B150" s="2">
         <v>45513</v>
@@ -2110,7 +2176,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B151" s="2">
         <v>45526</v>
@@ -2121,7 +2187,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B152" s="2">
         <v>45548</v>
@@ -2132,7 +2198,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B153" s="2">
         <v>45559</v>
@@ -2143,7 +2209,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B154" s="2">
         <v>45571</v>
@@ -2154,7 +2220,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B155" s="2">
         <v>45582</v>
@@ -2165,7 +2231,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B156" s="2">
         <v>45594</v>
@@ -2176,7 +2242,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B157" s="2">
         <v>45609</v>
@@ -2187,7 +2253,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B158" s="2">
         <v>45443</v>
@@ -2198,7 +2264,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B159" s="2">
         <v>45460</v>
@@ -2209,7 +2275,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B160" s="2">
         <v>45474</v>
@@ -2220,7 +2286,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B161" s="2">
         <v>45487</v>
@@ -2231,7 +2297,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B162" s="2">
         <v>45502</v>
@@ -2242,7 +2308,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B163" s="2">
         <v>45513</v>
@@ -2253,7 +2319,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B164" s="2">
         <v>45526</v>
@@ -2264,7 +2330,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B165" s="2">
         <v>45548</v>
@@ -2275,7 +2341,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B166" s="2">
         <v>45559</v>
@@ -2286,7 +2352,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B167" s="2">
         <v>45571</v>
@@ -2297,7 +2363,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B168" s="2">
         <v>45582</v>
@@ -2308,7 +2374,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B169" s="2">
         <v>45594</v>
@@ -2319,7 +2385,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B170" s="2">
         <v>45609</v>
@@ -2330,7 +2396,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B171" s="2">
         <v>45443</v>
@@ -2341,7 +2407,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B172" s="2">
         <v>45460</v>
@@ -2352,7 +2418,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B173" s="2">
         <v>45474</v>
@@ -2363,7 +2429,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B174" s="2">
         <v>45487</v>
@@ -2374,7 +2440,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B175" s="2">
         <v>45502</v>
@@ -2385,7 +2451,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B176" s="2">
         <v>45513</v>
@@ -2396,7 +2462,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B177" s="2">
         <v>45526</v>
@@ -2407,7 +2473,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B178" s="2">
         <v>45548</v>
@@ -2418,7 +2484,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B179" s="2">
         <v>45559</v>
@@ -2429,7 +2495,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B180" s="2">
         <v>45571</v>
@@ -2440,7 +2506,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B181" s="2">
         <v>45582</v>
@@ -2451,7 +2517,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B182" s="2">
         <v>45594</v>
@@ -2462,7 +2528,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B183" s="2">
         <v>45609</v>
@@ -2473,7 +2539,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B184" s="2">
         <v>45443</v>
@@ -2484,7 +2550,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B185" s="2">
         <v>45460</v>
@@ -2495,7 +2561,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B186" s="2">
         <v>45474</v>
@@ -2506,7 +2572,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B187" s="2">
         <v>45487</v>
@@ -2517,7 +2583,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B188" s="2">
         <v>45502</v>
@@ -2528,7 +2594,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B189" s="2">
         <v>45513</v>
@@ -2539,7 +2605,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B190" s="2">
         <v>45526</v>
@@ -2550,7 +2616,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B191" s="2">
         <v>45548</v>
@@ -2561,7 +2627,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B192" s="2">
         <v>45559</v>
@@ -2572,7 +2638,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B193" s="2">
         <v>45571</v>
@@ -2583,7 +2649,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B194" s="2">
         <v>45582</v>
@@ -2594,7 +2660,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B195" s="2">
         <v>45594</v>
@@ -2605,7 +2671,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B196" s="2">
         <v>45609</v>
@@ -2616,7 +2682,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B197" s="2">
         <v>45443</v>
@@ -2627,7 +2693,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B198" s="2">
         <v>45460</v>
@@ -2638,7 +2704,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B199" s="2">
         <v>45474</v>
@@ -2649,7 +2715,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B200" s="2">
         <v>45487</v>
@@ -2660,7 +2726,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B201" s="2">
         <v>45502</v>
@@ -2671,7 +2737,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B202" s="2">
         <v>45513</v>
@@ -2682,7 +2748,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B203" s="2">
         <v>45526</v>
@@ -2693,7 +2759,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B204" s="2">
         <v>45548</v>
@@ -2704,7 +2770,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B205" s="2">
         <v>45559</v>
@@ -2715,7 +2781,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B206" s="2">
         <v>45571</v>
@@ -2726,7 +2792,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B207" s="2">
         <v>45582</v>
@@ -2737,7 +2803,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B208" s="2">
         <v>45594</v>
@@ -2748,7 +2814,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B209" s="2">
         <v>45609</v>
@@ -2759,7 +2825,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B210" s="2">
         <v>45467</v>
@@ -2770,7 +2836,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B211" s="2">
         <v>45477</v>
@@ -2781,7 +2847,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B212" s="2">
         <v>45488</v>
@@ -2792,7 +2858,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B213" s="2">
         <v>45499</v>
@@ -2803,7 +2869,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B214" s="2">
         <v>45513</v>
@@ -2814,7 +2880,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B215" s="2">
         <v>45523</v>
@@ -2825,7 +2891,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B216" s="2">
         <v>45535</v>
@@ -2836,7 +2902,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B217" s="2">
         <v>45549</v>
@@ -2847,7 +2913,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B218" s="2">
         <v>45436</v>
@@ -2858,7 +2924,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B219" s="2">
         <v>45446</v>
@@ -2869,7 +2935,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B220" s="2">
         <v>45457</v>
@@ -2880,7 +2946,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B221" s="2">
         <v>45468</v>
@@ -2891,7 +2957,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B222" s="2">
         <v>45483</v>
@@ -2902,7 +2968,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B223" s="2">
         <v>45496</v>
@@ -2913,7 +2979,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B224" s="2">
         <v>45512</v>
@@ -2924,7 +2990,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B225" s="2">
         <v>45522</v>
@@ -2935,7 +3001,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B226" s="2">
         <v>45532</v>
@@ -2946,7 +3012,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B227" s="2">
         <v>45549</v>
@@ -2957,7 +3023,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B228" s="2">
         <v>45467</v>
@@ -2968,7 +3034,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B229" s="2">
         <v>45477</v>
@@ -2979,7 +3045,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B230" s="2">
         <v>45488</v>
@@ -2990,7 +3056,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B231" s="2">
         <v>45499</v>
@@ -3001,7 +3067,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B232" s="2">
         <v>45513</v>
@@ -3012,7 +3078,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B233" s="2">
         <v>45523</v>
@@ -3023,7 +3089,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B234" s="2">
         <v>45535</v>
@@ -3034,7 +3100,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B235" s="2">
         <v>45549</v>
@@ -3045,7 +3111,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B236" s="2">
         <v>45436</v>
@@ -3056,7 +3122,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B237" s="2">
         <v>45446</v>
@@ -3067,7 +3133,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B238" s="2">
         <v>45457</v>
@@ -3078,7 +3144,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B239" s="2">
         <v>45468</v>
@@ -3089,7 +3155,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B240" s="2">
         <v>45483</v>
@@ -3100,7 +3166,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B241" s="2">
         <v>45496</v>
@@ -3111,7 +3177,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B242" s="2">
         <v>45512</v>
@@ -3122,7 +3188,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B243" s="2">
         <v>45522</v>
@@ -3133,7 +3199,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B244" s="2">
         <v>45532</v>
@@ -3144,7 +3210,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B245" s="2">
         <v>45549</v>
@@ -3155,7 +3221,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B246" s="2">
         <v>45559</v>
@@ -3166,7 +3232,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B247" s="2">
         <v>45467</v>
@@ -3177,7 +3243,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B248" s="2">
         <v>45477</v>
@@ -3188,7 +3254,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B249" s="2">
         <v>45488</v>
@@ -3199,7 +3265,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B250" s="2">
         <v>45499</v>
@@ -3210,7 +3276,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B251" s="2">
         <v>45513</v>
@@ -3221,7 +3287,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B252" s="2">
         <v>45523</v>
@@ -3232,7 +3298,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B253" s="2">
         <v>45535</v>
@@ -3243,7 +3309,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B254" s="2">
         <v>45549</v>
@@ -3254,7 +3320,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B255" s="2">
         <v>45467</v>
@@ -3265,7 +3331,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B256" s="2">
         <v>45477</v>
@@ -3276,7 +3342,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B257" s="2">
         <v>45488</v>
@@ -3287,7 +3353,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B258" s="2">
         <v>45499</v>
@@ -3298,7 +3364,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B259" s="2">
         <v>45513</v>
@@ -3309,7 +3375,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B260" s="2">
         <v>45523</v>
@@ -3320,7 +3386,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B261" s="2">
         <v>45535</v>
@@ -3331,7 +3397,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B262" s="2">
         <v>45549</v>
@@ -3342,7 +3408,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B263" s="2">
         <v>45436</v>
@@ -3353,7 +3419,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B264" s="2">
         <v>45446</v>
@@ -3364,7 +3430,7 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B265" s="2">
         <v>45457</v>
@@ -3375,7 +3441,7 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B266" s="2">
         <v>45468</v>
@@ -3386,7 +3452,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B267" s="2">
         <v>45483</v>
@@ -3397,7 +3463,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B268" s="2">
         <v>45496</v>
@@ -3408,7 +3474,7 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B269" s="2">
         <v>45512</v>
@@ -3419,7 +3485,7 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B270" s="2">
         <v>45522</v>
@@ -3430,7 +3496,7 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B271" s="2">
         <v>45532</v>
@@ -3441,7 +3507,7 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B272" s="2">
         <v>45549</v>
@@ -3452,7 +3518,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B273" s="2">
         <v>45436</v>
@@ -3463,7 +3529,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B274" s="2">
         <v>45446</v>
@@ -3474,7 +3540,7 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B275" s="2">
         <v>45457</v>
@@ -3485,7 +3551,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B276" s="2">
         <v>45468</v>
@@ -3496,7 +3562,7 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B277" s="2">
         <v>45483</v>
@@ -3507,7 +3573,7 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B278" s="2">
         <v>45496</v>
@@ -3518,7 +3584,7 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B279" s="2">
         <v>45512</v>
@@ -3529,7 +3595,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B280" s="2">
         <v>45522</v>
@@ -3540,7 +3606,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B281" s="2">
         <v>45532</v>
@@ -3551,7 +3617,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B282" s="2">
         <v>45549</v>
@@ -3562,7 +3628,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B283" s="2">
         <v>45436</v>
@@ -3573,7 +3639,7 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B284" s="2">
         <v>45446</v>
@@ -3584,7 +3650,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B285" s="2">
         <v>45457</v>
@@ -3595,7 +3661,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B286" s="2">
         <v>45468</v>
@@ -3606,7 +3672,7 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B287" s="2">
         <v>45483</v>
@@ -3617,7 +3683,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B288" s="2">
         <v>45496</v>
@@ -3628,7 +3694,7 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B289" s="2">
         <v>45512</v>
@@ -3639,7 +3705,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B290" s="2">
         <v>45522</v>
@@ -3650,7 +3716,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B291" s="2">
         <v>45532</v>
@@ -3661,7 +3727,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B292" s="2">
         <v>45549</v>
@@ -3672,7 +3738,7 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B293" s="2">
         <v>45467</v>
@@ -3683,7 +3749,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B294" s="2">
         <v>45477</v>
@@ -3694,7 +3760,7 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B295" s="2">
         <v>45488</v>
@@ -3705,7 +3771,7 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B296" s="2">
         <v>45499</v>
@@ -3716,7 +3782,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B297" s="2">
         <v>45513</v>
@@ -3727,7 +3793,7 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B298" s="2">
         <v>45523</v>
@@ -3738,7 +3804,7 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B299" s="2">
         <v>45535</v>
@@ -3749,7 +3815,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B300" s="2">
         <v>45549</v>
@@ -3760,7 +3826,7 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B301" s="2">
         <v>45467</v>
@@ -3771,7 +3837,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B302" s="2">
         <v>45477</v>
@@ -3782,7 +3848,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B303" s="2">
         <v>45488</v>
@@ -3793,7 +3859,7 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B304" s="2">
         <v>45499</v>
@@ -3804,7 +3870,7 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B305" s="2">
         <v>45513</v>
@@ -3815,7 +3881,7 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B306" s="2">
         <v>45523</v>
@@ -3826,7 +3892,7 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B307" s="2">
         <v>45535</v>
@@ -3837,7 +3903,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B308" s="2">
         <v>45549</v>
@@ -3848,7 +3914,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B309" s="2">
         <v>45559</v>
@@ -3859,7 +3925,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B310" s="2">
         <v>45436</v>
@@ -3870,7 +3936,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B311" s="2">
         <v>45446</v>
@@ -3881,7 +3947,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B312" s="2">
         <v>45457</v>
@@ -3892,7 +3958,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B313" s="2">
         <v>45468</v>
@@ -3903,7 +3969,7 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B314" s="2">
         <v>45483</v>
@@ -3914,7 +3980,7 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B315" s="2">
         <v>45496</v>
@@ -3925,7 +3991,7 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B316" s="2">
         <v>45512</v>
@@ -3936,7 +4002,7 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B317" s="2">
         <v>45522</v>
@@ -3947,7 +4013,7 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B318" s="2">
         <v>45532</v>
@@ -3958,7 +4024,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B319" s="2">
         <v>45549</v>
@@ -3969,7 +4035,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B320" s="2">
         <v>45436</v>
@@ -3980,7 +4046,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B321" s="2">
         <v>45446</v>
@@ -3991,7 +4057,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B322" s="2">
         <v>45457</v>
@@ -4002,7 +4068,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B323" s="2">
         <v>45468</v>
@@ -4013,7 +4079,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B324" s="2">
         <v>45483</v>
@@ -4024,7 +4090,7 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B325" s="2">
         <v>45496</v>
@@ -4035,7 +4101,7 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B326" s="2">
         <v>45512</v>
@@ -4046,7 +4112,7 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B327" s="2">
         <v>45522</v>
@@ -4057,7 +4123,7 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B328" s="2">
         <v>45532</v>
@@ -4068,7 +4134,7 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B329" s="2">
         <v>45549</v>
@@ -4079,7 +4145,7 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B330" s="2">
         <v>45467</v>
@@ -4090,7 +4156,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B331" s="2">
         <v>45477</v>
@@ -4101,7 +4167,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B332" s="2">
         <v>45488</v>
@@ -4112,7 +4178,7 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B333" s="2">
         <v>45499</v>
@@ -4123,7 +4189,7 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B334" s="2">
         <v>45513</v>
@@ -4134,7 +4200,7 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B335" s="2">
         <v>45523</v>
@@ -4145,7 +4211,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B336" s="2">
         <v>45535</v>
@@ -4156,7 +4222,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B337" s="2">
         <v>45549</v>
@@ -4167,7 +4233,7 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B338" s="2">
         <v>45559</v>
@@ -4178,7 +4244,7 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B339" s="2">
         <v>45436</v>
@@ -4189,7 +4255,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B340" s="2">
         <v>45446</v>
@@ -4200,7 +4266,7 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B341" s="2">
         <v>45457</v>
@@ -4211,7 +4277,7 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B342" s="2">
         <v>45468</v>
@@ -4222,7 +4288,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B343" s="2">
         <v>45483</v>
@@ -4233,7 +4299,7 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B344" s="2">
         <v>45496</v>
@@ -4244,7 +4310,7 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B345" s="2">
         <v>45512</v>
@@ -4255,7 +4321,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B346" s="2">
         <v>45522</v>
@@ -4266,7 +4332,7 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B347" s="2">
         <v>45532</v>
@@ -4277,7 +4343,7 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B348" s="2">
         <v>45549</v>
@@ -4288,7 +4354,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B349" s="2">
         <v>45559</v>
@@ -4299,7 +4365,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B350" s="2">
         <v>45467</v>
@@ -4310,7 +4376,7 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B351" s="2">
         <v>45477</v>
@@ -4321,7 +4387,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B352" s="2">
         <v>45488</v>
@@ -4332,7 +4398,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B353" s="2">
         <v>45499</v>
@@ -4343,7 +4409,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B354" s="2">
         <v>45513</v>
@@ -4354,7 +4420,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B355" s="2">
         <v>45523</v>
@@ -4365,7 +4431,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B356" s="2">
         <v>45535</v>
@@ -4376,7 +4442,7 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B357" s="2">
         <v>45549</v>
@@ -4387,7 +4453,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B358" s="2">
         <v>45438</v>
@@ -4398,7 +4464,7 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B359" s="2">
         <v>45409</v>
@@ -4409,7 +4475,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B360" s="2">
         <v>45439</v>
@@ -4420,7 +4486,7 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B361" s="2">
         <v>45409</v>
@@ -4431,7 +4497,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B362" s="2">
         <v>45439</v>
@@ -4442,7 +4508,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B363" s="2">
         <v>45437</v>
@@ -4453,7 +4519,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B364" s="2">
         <v>45410</v>
@@ -4464,7 +4530,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B365" s="2">
         <v>45416</v>
@@ -4475,7 +4541,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B366" s="2">
         <v>45414</v>
@@ -4486,7 +4552,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B367" s="2">
         <v>45439</v>
@@ -4497,7 +4563,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B368" s="2">
         <v>45439</v>
@@ -4508,7 +4574,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B369" s="2">
         <v>45410</v>
@@ -4519,7 +4585,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B370" s="2">
         <v>45413</v>
@@ -4530,7 +4596,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B371" s="2">
         <v>45438</v>
@@ -4541,7 +4607,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B372" s="2">
         <v>45414</v>
@@ -4552,7 +4618,7 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B373" s="2">
         <v>45438</v>
@@ -4563,7 +4629,7 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B374" s="2">
         <v>45547</v>
@@ -4574,7 +4640,7 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B375" s="2">
         <v>45543</v>
@@ -4585,7 +4651,7 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B376" s="2">
         <v>45545</v>
@@ -4596,7 +4662,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B377" s="2">
         <v>45547</v>
@@ -4607,7 +4673,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B378" s="2">
         <v>45541</v>
@@ -4618,7 +4684,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B379" s="2">
         <v>45549</v>
@@ -4629,7 +4695,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B380" s="2">
         <v>45538</v>
@@ -4640,7 +4706,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B381" s="2">
         <v>45545</v>
@@ -4651,7 +4717,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B382" s="2">
         <v>45548</v>
@@ -4662,7 +4728,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B383" s="2">
         <v>45542</v>
@@ -4673,7 +4739,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B384" s="2">
         <v>45546</v>
@@ -4684,7 +4750,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B385" s="2">
         <v>45544</v>
@@ -4695,7 +4761,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B386" s="2">
         <v>45539</v>
@@ -4706,7 +4772,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B387" s="2">
         <v>45546</v>
@@ -4717,7 +4783,7 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B388" s="2">
         <v>45546</v>
@@ -4728,7 +4794,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B389" s="2">
         <v>45546</v>
@@ -4739,7 +4805,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B390" s="2">
         <v>45568</v>
@@ -4750,7 +4816,7 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B391" s="2">
         <v>45565</v>
@@ -4761,7 +4827,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B392" s="2">
         <v>45566</v>
@@ -4772,7 +4838,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B393" s="2">
         <v>45568</v>
@@ -4783,7 +4849,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B394" s="2">
         <v>45560</v>
@@ -4794,7 +4860,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B395" s="2">
         <v>45567</v>
@@ -4805,7 +4871,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B396" s="2">
         <v>45560</v>
@@ -4816,7 +4882,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B397" s="2">
         <v>45566</v>
@@ -4827,7 +4893,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B398" s="2">
         <v>45567</v>
@@ -4838,7 +4904,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B399" s="2">
         <v>45561</v>
@@ -4849,7 +4915,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B400" s="2">
         <v>45567</v>
@@ -4858,9 +4924,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:13">
       <c r="A401" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B401" s="2">
         <v>45566</v>
@@ -4869,9 +4935,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:13">
       <c r="A402" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B402" s="2">
         <v>45560</v>
@@ -4880,9 +4946,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:13">
       <c r="A403" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B403" s="2">
         <v>45566</v>
@@ -4891,9 +4957,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:13">
       <c r="A404" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B404" s="2">
         <v>45567</v>
@@ -4902,15 +4968,1551 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:13">
       <c r="A405" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B405" s="2">
         <v>45567</v>
       </c>
       <c r="F405">
         <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13">
+      <c r="A406" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B406" s="2">
+        <v>45547</v>
+      </c>
+      <c r="D406">
+        <v>0.86</v>
+      </c>
+      <c r="G406">
+        <v>0.9815</v>
+      </c>
+      <c r="H406">
+        <v>682.5</v>
+      </c>
+      <c r="I406">
+        <v>202.5212674525511</v>
+      </c>
+      <c r="J406">
+        <v>20.04049611623115</v>
+      </c>
+      <c r="K406">
+        <v>296.4839070665737</v>
+      </c>
+      <c r="L406">
+        <v>25.49066620045073</v>
+      </c>
+      <c r="M406">
+        <v>544.5363368358067</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13">
+      <c r="A407" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" s="2">
+        <v>45545</v>
+      </c>
+      <c r="D407">
+        <v>0.865</v>
+      </c>
+      <c r="G407">
+        <v>0.981</v>
+      </c>
+      <c r="H407">
+        <v>615</v>
+      </c>
+      <c r="I407">
+        <v>281.0496642555459</v>
+      </c>
+      <c r="J407">
+        <v>28.16080962323093</v>
+      </c>
+      <c r="K407">
+        <v>381.626864383153</v>
+      </c>
+      <c r="L407">
+        <v>54.59546454941584</v>
+      </c>
+      <c r="M407">
+        <v>745.4328028113457</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13">
+      <c r="A408" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B408" s="2">
+        <v>45546</v>
+      </c>
+      <c r="D408">
+        <v>0.855</v>
+      </c>
+      <c r="G408">
+        <v>0.974</v>
+      </c>
+      <c r="H408">
+        <v>610</v>
+      </c>
+      <c r="I408">
+        <v>180.7609958026799</v>
+      </c>
+      <c r="J408">
+        <v>33.81675648606262</v>
+      </c>
+      <c r="K408">
+        <v>289.739469022064</v>
+      </c>
+      <c r="L408">
+        <v>47.85054243215831</v>
+      </c>
+      <c r="M408">
+        <v>552.1677637429648</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13">
+      <c r="A409" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B409" s="2">
+        <v>45548</v>
+      </c>
+      <c r="D409">
+        <v>0.84</v>
+      </c>
+      <c r="G409">
+        <v>0.9795</v>
+      </c>
+      <c r="H409">
+        <v>627.5</v>
+      </c>
+      <c r="I409">
+        <v>207.1089580700744</v>
+      </c>
+      <c r="J409">
+        <v>86.04572821176724</v>
+      </c>
+      <c r="K409">
+        <v>341.2705721954016</v>
+      </c>
+      <c r="L409">
+        <v>38.48922770060565</v>
+      </c>
+      <c r="M409">
+        <v>672.9144861778489</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13">
+      <c r="A410" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B410" s="2">
+        <v>45544</v>
+      </c>
+      <c r="D410">
+        <v>0.8275</v>
+      </c>
+      <c r="G410">
+        <v>0.929</v>
+      </c>
+      <c r="H410">
+        <v>640</v>
+      </c>
+      <c r="I410">
+        <v>162.4155263836956</v>
+      </c>
+      <c r="J410">
+        <v>16.71015552475116</v>
+      </c>
+      <c r="K410">
+        <v>260.3772529509814</v>
+      </c>
+      <c r="L410">
+        <v>45.24337954959397</v>
+      </c>
+      <c r="M410">
+        <v>484.7463144090221</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13">
+      <c r="A411" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B411" s="2">
+        <v>45548</v>
+      </c>
+      <c r="D411">
+        <v>0.835</v>
+      </c>
+      <c r="G411">
+        <v>0.9732499999999999</v>
+      </c>
+      <c r="H411">
+        <v>567.5</v>
+      </c>
+      <c r="I411">
+        <v>199.0275366558933</v>
+      </c>
+      <c r="J411">
+        <v>23.55252384411443</v>
+      </c>
+      <c r="K411">
+        <v>289.9199342784437</v>
+      </c>
+      <c r="L411">
+        <v>31.27599153514972</v>
+      </c>
+      <c r="M411">
+        <v>543.7759863136012</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13">
+      <c r="A412" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" s="2">
+        <v>45540</v>
+      </c>
+      <c r="D412">
+        <v>0.825</v>
+      </c>
+      <c r="G412">
+        <v>0.982</v>
+      </c>
+      <c r="H412">
+        <v>625</v>
+      </c>
+      <c r="I412">
+        <v>201.2253114401748</v>
+      </c>
+      <c r="J412">
+        <v>42.17841430801527</v>
+      </c>
+      <c r="K412">
+        <v>366.5907758486296</v>
+      </c>
+      <c r="L412">
+        <v>33.02415867481317</v>
+      </c>
+      <c r="M412">
+        <v>643.0186602716327</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13">
+      <c r="A413" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B413" s="2">
+        <v>45547</v>
+      </c>
+      <c r="D413">
+        <v>0.8574999999999999</v>
+      </c>
+      <c r="G413">
+        <v>0.98725</v>
+      </c>
+      <c r="H413">
+        <v>680</v>
+      </c>
+      <c r="I413">
+        <v>178.6196792389518</v>
+      </c>
+      <c r="J413">
+        <v>47.98501123212196</v>
+      </c>
+      <c r="K413">
+        <v>340.2816828831521</v>
+      </c>
+      <c r="L413">
+        <v>50.32241439318124</v>
+      </c>
+      <c r="M413">
+        <v>617.2087877474071</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13">
+      <c r="A414" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B414" s="2">
+        <v>45547</v>
+      </c>
+      <c r="D414">
+        <v>0.8574999999999999</v>
+      </c>
+      <c r="G414">
+        <v>0.985</v>
+      </c>
+      <c r="H414">
+        <v>655</v>
+      </c>
+      <c r="I414">
+        <v>214.0879356556025</v>
+      </c>
+      <c r="J414">
+        <v>70.20963033292126</v>
+      </c>
+      <c r="K414">
+        <v>365.5151697769206</v>
+      </c>
+      <c r="L414">
+        <v>46.66026104325931</v>
+      </c>
+      <c r="M414">
+        <v>696.4729968087037</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13">
+      <c r="A415" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B415" s="2">
+        <v>45544</v>
+      </c>
+      <c r="D415">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G415">
+        <v>0.917</v>
+      </c>
+      <c r="H415">
+        <v>620</v>
+      </c>
+      <c r="I415">
+        <v>174.4072900391967</v>
+      </c>
+      <c r="J415">
+        <v>19.23968128146464</v>
+      </c>
+      <c r="K415">
+        <v>304.7758395132753</v>
+      </c>
+      <c r="L415">
+        <v>46.63882578677414</v>
+      </c>
+      <c r="M415">
+        <v>545.0616366207109</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13">
+      <c r="A416" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B416" s="2">
+        <v>45547</v>
+      </c>
+      <c r="D416">
+        <v>0.845</v>
+      </c>
+      <c r="G416">
+        <v>0.982</v>
+      </c>
+      <c r="H416">
+        <v>637.5</v>
+      </c>
+      <c r="I416">
+        <v>199.8114507281041</v>
+      </c>
+      <c r="J416">
+        <v>31.44537408364302</v>
+      </c>
+      <c r="K416">
+        <v>336.9374258570915</v>
+      </c>
+      <c r="L416">
+        <v>22.59565709409236</v>
+      </c>
+      <c r="M416">
+        <v>590.789907762931</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13">
+      <c r="A417" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B417" s="2">
+        <v>45545</v>
+      </c>
+      <c r="D417">
+        <v>0.85</v>
+      </c>
+      <c r="G417">
+        <v>0.98325</v>
+      </c>
+      <c r="H417">
+        <v>627.5</v>
+      </c>
+      <c r="I417">
+        <v>233.3039039685316</v>
+      </c>
+      <c r="J417">
+        <v>54.60499952559611</v>
+      </c>
+      <c r="K417">
+        <v>292.7070609219224</v>
+      </c>
+      <c r="L417">
+        <v>30.2768196798471</v>
+      </c>
+      <c r="M417">
+        <v>610.8927840958972</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
+      <c r="A418" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B418" s="2">
+        <v>45540</v>
+      </c>
+      <c r="D418">
+        <v>0.85</v>
+      </c>
+      <c r="G418">
+        <v>0.979</v>
+      </c>
+      <c r="H418">
+        <v>627.5</v>
+      </c>
+      <c r="I418">
+        <v>236.7355418237827</v>
+      </c>
+      <c r="J418">
+        <v>35.44085887782282</v>
+      </c>
+      <c r="K418">
+        <v>387.95078111229</v>
+      </c>
+      <c r="L418">
+        <v>37.44292329824293</v>
+      </c>
+      <c r="M418">
+        <v>697.5701051121385</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
+      <c r="A419" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B419" s="2">
+        <v>45546</v>
+      </c>
+      <c r="D419">
+        <v>0.835</v>
+      </c>
+      <c r="G419">
+        <v>0.9602499999999999</v>
+      </c>
+      <c r="H419">
+        <v>577.5</v>
+      </c>
+      <c r="I419">
+        <v>207.906861411714</v>
+      </c>
+      <c r="J419">
+        <v>45.82023125896245</v>
+      </c>
+      <c r="K419">
+        <v>324.7081712049055</v>
+      </c>
+      <c r="L419">
+        <v>46.87923815117863</v>
+      </c>
+      <c r="M419">
+        <v>625.3145020267606</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13">
+      <c r="A420" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B420" s="2">
+        <v>45546</v>
+      </c>
+      <c r="D420">
+        <v>0.8725000000000001</v>
+      </c>
+      <c r="G420">
+        <v>0.984</v>
+      </c>
+      <c r="H420">
+        <v>607.5</v>
+      </c>
+      <c r="I420">
+        <v>237.050206908978</v>
+      </c>
+      <c r="J420">
+        <v>56.0441064068177</v>
+      </c>
+      <c r="K420">
+        <v>323.293082510866</v>
+      </c>
+      <c r="L420">
+        <v>33.03788111999833</v>
+      </c>
+      <c r="M420">
+        <v>649.42527694666</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13">
+      <c r="A421" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="2">
+        <v>45547</v>
+      </c>
+      <c r="D421">
+        <v>0.8275</v>
+      </c>
+      <c r="G421">
+        <v>0.9742499999999999</v>
+      </c>
+      <c r="H421">
+        <v>652.5</v>
+      </c>
+      <c r="I421">
+        <v>179.7655710619761</v>
+      </c>
+      <c r="J421">
+        <v>42.99338214911379</v>
+      </c>
+      <c r="K421">
+        <v>295.8112831509025</v>
+      </c>
+      <c r="L421">
+        <v>27.43742125943521</v>
+      </c>
+      <c r="M421">
+        <v>546.0076576214276</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13">
+      <c r="A422" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B422" s="2">
+        <v>45568</v>
+      </c>
+      <c r="D422">
+        <v>0.7625</v>
+      </c>
+      <c r="G422">
+        <v>0.94075</v>
+      </c>
+      <c r="H422">
+        <v>950</v>
+      </c>
+      <c r="I422">
+        <v>150.6508802305439</v>
+      </c>
+      <c r="J422">
+        <v>34.06599405053454</v>
+      </c>
+      <c r="K422">
+        <v>526.1973329578653</v>
+      </c>
+      <c r="L422">
+        <v>146.6156560890873</v>
+      </c>
+      <c r="M422">
+        <v>857.5298633280312</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
+      <c r="A423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B423" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D423">
+        <v>0.765</v>
+      </c>
+      <c r="G423">
+        <v>0.9552499999999999</v>
+      </c>
+      <c r="H423">
+        <v>842.5</v>
+      </c>
+      <c r="I423">
+        <v>195.0364920834449</v>
+      </c>
+      <c r="J423">
+        <v>65.53705794580475</v>
+      </c>
+      <c r="K423">
+        <v>553.4776735773178</v>
+      </c>
+      <c r="L423">
+        <v>177.5888114506595</v>
+      </c>
+      <c r="M423">
+        <v>991.640035057227</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
+      <c r="A424" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B424" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D424">
+        <v>0.775</v>
+      </c>
+      <c r="G424">
+        <v>0.9265</v>
+      </c>
+      <c r="H424">
+        <v>835</v>
+      </c>
+      <c r="I424">
+        <v>152.3341403695721</v>
+      </c>
+      <c r="J424">
+        <v>36.64634712175501</v>
+      </c>
+      <c r="K424">
+        <v>430.8911466579273</v>
+      </c>
+      <c r="L424">
+        <v>136.8720063912698</v>
+      </c>
+      <c r="M424">
+        <v>756.7436405405242</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13">
+      <c r="A425" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B425" s="2">
+        <v>45567</v>
+      </c>
+      <c r="D425">
+        <v>0.7675000000000001</v>
+      </c>
+      <c r="G425">
+        <v>0.9585</v>
+      </c>
+      <c r="H425">
+        <v>915</v>
+      </c>
+      <c r="I425">
+        <v>175.1290074082302</v>
+      </c>
+      <c r="J425">
+        <v>86.88339802773437</v>
+      </c>
+      <c r="K425">
+        <v>498.3511616659181</v>
+      </c>
+      <c r="L425">
+        <v>150.121049629364</v>
+      </c>
+      <c r="M425">
+        <v>910.4846167312467</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13">
+      <c r="A426" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B426" s="2">
+        <v>45560</v>
+      </c>
+      <c r="D426">
+        <v>0.775</v>
+      </c>
+      <c r="G426">
+        <v>0.931</v>
+      </c>
+      <c r="H426">
+        <v>847.5</v>
+      </c>
+      <c r="I426">
+        <v>162.6808814271012</v>
+      </c>
+      <c r="J426">
+        <v>54.20795213184537</v>
+      </c>
+      <c r="K426">
+        <v>563.482546178725</v>
+      </c>
+      <c r="L426">
+        <v>155.8745429751586</v>
+      </c>
+      <c r="M426">
+        <v>936.2459227128301</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
+      <c r="A427" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B427" s="2">
+        <v>45568</v>
+      </c>
+      <c r="D427">
+        <v>0.775</v>
+      </c>
+      <c r="G427">
+        <v>0.9644999999999999</v>
+      </c>
+      <c r="H427">
+        <v>865</v>
+      </c>
+      <c r="I427">
+        <v>172.84752174736</v>
+      </c>
+      <c r="J427">
+        <v>47.12296019568316</v>
+      </c>
+      <c r="K427">
+        <v>523.025711882536</v>
+      </c>
+      <c r="L427">
+        <v>149.4345881244579</v>
+      </c>
+      <c r="M427">
+        <v>892.4307819500372</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13">
+      <c r="A428" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B428" s="2">
+        <v>45560</v>
+      </c>
+      <c r="D428">
+        <v>0.79</v>
+      </c>
+      <c r="G428">
+        <v>0.95575</v>
+      </c>
+      <c r="H428">
+        <v>880</v>
+      </c>
+      <c r="I428">
+        <v>185.3763857560242</v>
+      </c>
+      <c r="J428">
+        <v>79.78141493761062</v>
+      </c>
+      <c r="K428">
+        <v>664.837946640997</v>
+      </c>
+      <c r="L428">
+        <v>172.1249352778161</v>
+      </c>
+      <c r="M428">
+        <v>1102.120682612448</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
+      <c r="A429" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B429" s="2">
+        <v>45565</v>
+      </c>
+      <c r="D429">
+        <v>0.7375</v>
+      </c>
+      <c r="G429">
+        <v>0.9702499999999999</v>
+      </c>
+      <c r="H429">
+        <v>975</v>
+      </c>
+      <c r="I429">
+        <v>146.5555427990421</v>
+      </c>
+      <c r="J429">
+        <v>59.79658890542938</v>
+      </c>
+      <c r="K429">
+        <v>492.9357132343669</v>
+      </c>
+      <c r="L429">
+        <v>137.7682100752102</v>
+      </c>
+      <c r="M429">
+        <v>837.0560550140485</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13">
+      <c r="A430" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B430" s="2">
+        <v>45567</v>
+      </c>
+      <c r="D430">
+        <v>0.75</v>
+      </c>
+      <c r="G430">
+        <v>0.964</v>
+      </c>
+      <c r="H430">
+        <v>947.5</v>
+      </c>
+      <c r="I430">
+        <v>199.9787921050178</v>
+      </c>
+      <c r="J430">
+        <v>96.0132329031314</v>
+      </c>
+      <c r="K430">
+        <v>636.9441794668192</v>
+      </c>
+      <c r="L430">
+        <v>170.0043995853015</v>
+      </c>
+      <c r="M430">
+        <v>1102.94060406027</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13">
+      <c r="A431" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B431" s="2">
+        <v>45561</v>
+      </c>
+      <c r="D431">
+        <v>0.7475000000000001</v>
+      </c>
+      <c r="G431">
+        <v>0.9685</v>
+      </c>
+      <c r="H431">
+        <v>830</v>
+      </c>
+      <c r="I431">
+        <v>156.4922452588649</v>
+      </c>
+      <c r="J431">
+        <v>51.83054567878119</v>
+      </c>
+      <c r="K431">
+        <v>507.5534514092133</v>
+      </c>
+      <c r="L431">
+        <v>153.6160385180892</v>
+      </c>
+      <c r="M431">
+        <v>869.4922808649485</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13">
+      <c r="A432" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B432" s="2">
+        <v>45567</v>
+      </c>
+      <c r="D432">
+        <v>0.76</v>
+      </c>
+      <c r="G432">
+        <v>0.93975</v>
+      </c>
+      <c r="H432">
+        <v>917.5</v>
+      </c>
+      <c r="I432">
+        <v>208.8982466561496</v>
+      </c>
+      <c r="J432">
+        <v>14.95590479697023</v>
+      </c>
+      <c r="K432">
+        <v>637.6358429297045</v>
+      </c>
+      <c r="L432">
+        <v>154.9247885691353</v>
+      </c>
+      <c r="M432">
+        <v>1016.41478295196</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17">
+      <c r="A433" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B433" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D433">
+        <v>0.58025</v>
+      </c>
+      <c r="G433">
+        <v>0.94025</v>
+      </c>
+      <c r="H433">
+        <v>855</v>
+      </c>
+      <c r="I433">
+        <v>189.7558056412777</v>
+      </c>
+      <c r="J433">
+        <v>59.95997320946631</v>
+      </c>
+      <c r="K433">
+        <v>547.9010504487667</v>
+      </c>
+      <c r="L433">
+        <v>163.6957940947053</v>
+      </c>
+      <c r="M433">
+        <v>961.3126233942162</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17">
+      <c r="A434" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B434" s="2">
+        <v>45560</v>
+      </c>
+      <c r="D434">
+        <v>0.795</v>
+      </c>
+      <c r="G434">
+        <v>0.9555</v>
+      </c>
+      <c r="H434">
+        <v>897.5</v>
+      </c>
+      <c r="I434">
+        <v>171.0344315821187</v>
+      </c>
+      <c r="J434">
+        <v>81.5761658365811</v>
+      </c>
+      <c r="K434">
+        <v>628.3955111003473</v>
+      </c>
+      <c r="L434">
+        <v>188.6257151743806</v>
+      </c>
+      <c r="M434">
+        <v>1069.631823693428</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17">
+      <c r="A435" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B435" s="2">
+        <v>45567</v>
+      </c>
+      <c r="D435">
+        <v>0.715</v>
+      </c>
+      <c r="G435">
+        <v>0.9315</v>
+      </c>
+      <c r="H435">
+        <v>752.5</v>
+      </c>
+      <c r="I435">
+        <v>181.1682839506326</v>
+      </c>
+      <c r="J435">
+        <v>64.55889360747528</v>
+      </c>
+      <c r="K435">
+        <v>544.3785897855089</v>
+      </c>
+      <c r="L435">
+        <v>175.6571399762146</v>
+      </c>
+      <c r="M435">
+        <v>965.7629073198315</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17">
+      <c r="A436" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B436" s="2">
+        <v>45567</v>
+      </c>
+      <c r="D436">
+        <v>0.76</v>
+      </c>
+      <c r="G436">
+        <v>0.9662499999999999</v>
+      </c>
+      <c r="H436">
+        <v>937.5</v>
+      </c>
+      <c r="I436">
+        <v>187.1554730498837</v>
+      </c>
+      <c r="J436">
+        <v>85.3187979762272</v>
+      </c>
+      <c r="K436">
+        <v>534.8165947952093</v>
+      </c>
+      <c r="L436">
+        <v>151.368251595694</v>
+      </c>
+      <c r="M436">
+        <v>958.6591174170142</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17">
+      <c r="A437" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B437" s="2">
+        <v>45568</v>
+      </c>
+      <c r="D437">
+        <v>0.7375</v>
+      </c>
+      <c r="G437">
+        <v>0.949</v>
+      </c>
+      <c r="H437">
+        <v>917.5</v>
+      </c>
+      <c r="I437">
+        <v>166.6408823255697</v>
+      </c>
+      <c r="J437">
+        <v>81.95841517719273</v>
+      </c>
+      <c r="K437">
+        <v>586.8904390579617</v>
+      </c>
+      <c r="L437">
+        <v>164.1365459106273</v>
+      </c>
+      <c r="M437">
+        <v>999.6262824713513</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17">
+      <c r="A438" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B438" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J438">
+        <v>84.81278690514895</v>
+      </c>
+      <c r="K438">
+        <v>314.396179139448</v>
+      </c>
+      <c r="L438">
+        <v>125.4410017900279</v>
+      </c>
+      <c r="M438">
+        <v>986.5799678346248</v>
+      </c>
+      <c r="N438">
+        <v>461.93</v>
+      </c>
+      <c r="O438">
+        <v>0.03862133929865237</v>
+      </c>
+      <c r="P438">
+        <v>12002.55036365683</v>
+      </c>
+      <c r="Q438">
+        <v>587.3710017900279</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17">
+      <c r="A439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J439">
+        <v>110.8658524383514</v>
+      </c>
+      <c r="K439">
+        <v>323.7751319119051</v>
+      </c>
+      <c r="L439">
+        <v>166.5760914030894</v>
+      </c>
+      <c r="M439">
+        <v>1138.627075753346</v>
+      </c>
+      <c r="N439">
+        <v>537.41</v>
+      </c>
+      <c r="O439">
+        <v>0.03986682798876903</v>
+      </c>
+      <c r="P439">
+        <v>13485.63188980552</v>
+      </c>
+      <c r="Q439">
+        <v>703.9860914030893</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17">
+      <c r="A440" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B440" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J440">
+        <v>93.18433955045765</v>
+      </c>
+      <c r="K440">
+        <v>304.509641620273</v>
+      </c>
+      <c r="L440">
+        <v>135.7991546950039</v>
+      </c>
+      <c r="M440">
+        <v>979.3731358657346</v>
+      </c>
+      <c r="N440">
+        <v>445.88</v>
+      </c>
+      <c r="O440">
+        <v>0.03831928956026411</v>
+      </c>
+      <c r="P440">
+        <v>11655.87644109052</v>
+      </c>
+      <c r="Q440">
+        <v>581.6791546950039</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17">
+      <c r="A441" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B441" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J441">
+        <v>117.810961436271</v>
+      </c>
+      <c r="K441">
+        <v>380.6998772844267</v>
+      </c>
+      <c r="L441">
+        <v>156.6750512316215</v>
+      </c>
+      <c r="M441">
+        <v>1188.740889952319</v>
+      </c>
+      <c r="N441">
+        <v>533.5550000000001</v>
+      </c>
+      <c r="O441">
+        <v>0.04229048076449436</v>
+      </c>
+      <c r="P441">
+        <v>12732.16935707758</v>
+      </c>
+      <c r="Q441">
+        <v>690.2300512316215</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17">
+      <c r="A442" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J442">
+        <v>82.32310999021281</v>
+      </c>
+      <c r="K442">
+        <v>334.2524803169833</v>
+      </c>
+      <c r="L442">
+        <v>152.0489382372675</v>
+      </c>
+      <c r="M442">
+        <v>1110.749528544464</v>
+      </c>
+      <c r="N442">
+        <v>542.125</v>
+      </c>
+      <c r="O442">
+        <v>0.03957079692481134</v>
+      </c>
+      <c r="P442">
+        <v>13701.5132094102</v>
+      </c>
+      <c r="Q442">
+        <v>694.1739382372674</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17">
+      <c r="A443" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B443" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J443">
+        <v>101.5055131490576</v>
+      </c>
+      <c r="K443">
+        <v>335.6293048367564</v>
+      </c>
+      <c r="L443">
+        <v>142.6370302789858</v>
+      </c>
+      <c r="M443">
+        <v>1056.3618482648</v>
+      </c>
+      <c r="N443">
+        <v>476.59</v>
+      </c>
+      <c r="O443">
+        <v>0.0342640426567721</v>
+      </c>
+      <c r="P443">
+        <v>13870.70875727802</v>
+      </c>
+      <c r="Q443">
+        <v>619.2270302789858</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17">
+      <c r="A444" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B444" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J444">
+        <v>88.61331479585829</v>
+      </c>
+      <c r="K444">
+        <v>337.033649092847</v>
+      </c>
+      <c r="L444">
+        <v>143.5728581277749</v>
+      </c>
+      <c r="M444">
+        <v>1183.77482201648</v>
+      </c>
+      <c r="N444">
+        <v>614.5550000000001</v>
+      </c>
+      <c r="O444">
+        <v>0.04107835789646488</v>
+      </c>
+      <c r="P444">
+        <v>14971.51746134088</v>
+      </c>
+      <c r="Q444">
+        <v>758.127858127775</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17">
+      <c r="A445" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B445" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J445">
+        <v>107.8131508088859</v>
+      </c>
+      <c r="K445">
+        <v>377.3502880775173</v>
+      </c>
+      <c r="L445">
+        <v>155.3175456689836</v>
+      </c>
+      <c r="M445">
+        <v>1106.040984555387</v>
+      </c>
+      <c r="N445">
+        <v>465.56</v>
+      </c>
+      <c r="O445">
+        <v>0.03671195959855893</v>
+      </c>
+      <c r="P445">
+        <v>12783.13564877307</v>
+      </c>
+      <c r="Q445">
+        <v>620.8775456689835</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17">
+      <c r="A446" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B446" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J446">
+        <v>115.1394823630547</v>
+      </c>
+      <c r="K446">
+        <v>363.3573317939685</v>
+      </c>
+      <c r="L446">
+        <v>141.2799904515533</v>
+      </c>
+      <c r="M446">
+        <v>1136.646804608577</v>
+      </c>
+      <c r="N446">
+        <v>516.87</v>
+      </c>
+      <c r="O446">
+        <v>0.03794992272771178</v>
+      </c>
+      <c r="P446">
+        <v>13617.04974629279</v>
+      </c>
+      <c r="Q446">
+        <v>658.1499904515533</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17">
+      <c r="A447" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B447" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J447">
+        <v>74.67148344495273</v>
+      </c>
+      <c r="K447">
+        <v>281.1868941006218</v>
+      </c>
+      <c r="L447">
+        <v>120.5614480742542</v>
+      </c>
+      <c r="M447">
+        <v>970.1098256198288</v>
+      </c>
+      <c r="N447">
+        <v>493.69</v>
+      </c>
+      <c r="O447">
+        <v>0.04565636436338981</v>
+      </c>
+      <c r="P447">
+        <v>10974.69276630345</v>
+      </c>
+      <c r="Q447">
+        <v>614.2514480742542</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17">
+      <c r="A448" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B448" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J448">
+        <v>83.29936808468337</v>
+      </c>
+      <c r="K448">
+        <v>314.3994371549075</v>
+      </c>
+      <c r="L448">
+        <v>123.9078241231925</v>
+      </c>
+      <c r="M448">
+        <v>1044.041629362783</v>
+      </c>
+      <c r="N448">
+        <v>522.4350000000001</v>
+      </c>
+      <c r="O448">
+        <v>0.03895773326572009</v>
+      </c>
+      <c r="P448">
+        <v>13467.5078987766</v>
+      </c>
+      <c r="Q448">
+        <v>646.3428241231926</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17">
+      <c r="A449" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B449" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J449">
+        <v>96.68456580651561</v>
+      </c>
+      <c r="K449">
+        <v>320.8040035937345</v>
+      </c>
+      <c r="L449">
+        <v>150.9124119681732</v>
+      </c>
+      <c r="M449">
+        <v>1065.160981368423</v>
+      </c>
+      <c r="N449">
+        <v>496.76</v>
+      </c>
+      <c r="O449">
+        <v>0.03797168058223733</v>
+      </c>
+      <c r="P449">
+        <v>13068.22098336198</v>
+      </c>
+      <c r="Q449">
+        <v>647.6724119681732</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17">
+      <c r="A450" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B450" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J450">
+        <v>113.4921792652508</v>
+      </c>
+      <c r="K450">
+        <v>339.5292356160052</v>
+      </c>
+      <c r="L450">
+        <v>154.7755189933426</v>
+      </c>
+      <c r="M450">
+        <v>1164.016933874598</v>
+      </c>
+      <c r="N450">
+        <v>556.22</v>
+      </c>
+      <c r="O450">
+        <v>0.03617043093356746</v>
+      </c>
+      <c r="P450">
+        <v>15511.1583212998</v>
+      </c>
+      <c r="Q450">
+        <v>710.9955189933426</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17">
+      <c r="A451" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B451" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J451">
+        <v>86.27813021306808</v>
+      </c>
+      <c r="K451">
+        <v>295.9777521187038</v>
+      </c>
+      <c r="L451">
+        <v>154.0739530935335</v>
+      </c>
+      <c r="M451">
+        <v>1019.049835425305</v>
+      </c>
+      <c r="N451">
+        <v>482.72</v>
+      </c>
+      <c r="O451">
+        <v>0.04364651132233288</v>
+      </c>
+      <c r="P451">
+        <v>11147.43704788128</v>
+      </c>
+      <c r="Q451">
+        <v>636.7939530935334</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17">
+      <c r="A452" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B452" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J452">
+        <v>90.65280788255609</v>
+      </c>
+      <c r="K452">
+        <v>323.8721148578147</v>
+      </c>
+      <c r="L452">
+        <v>134.3229737677141</v>
+      </c>
+      <c r="M452">
+        <v>952.6728965080849</v>
+      </c>
+      <c r="N452">
+        <v>403.825</v>
+      </c>
+      <c r="O452">
+        <v>0.03698969183735519</v>
+      </c>
+      <c r="P452">
+        <v>10935.137211216</v>
+      </c>
+      <c r="Q452">
+        <v>538.147973767714</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17">
+      <c r="A453" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B453" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J453">
+        <v>106.4474698280012</v>
+      </c>
+      <c r="K453">
+        <v>347.6536280425344</v>
+      </c>
+      <c r="L453">
+        <v>133.8650972759609</v>
+      </c>
+      <c r="M453">
+        <v>1063.546195146496</v>
+      </c>
+      <c r="N453">
+        <v>475.58</v>
+      </c>
+      <c r="O453">
+        <v>0.04310658806028386</v>
+      </c>
+      <c r="P453">
+        <v>11167.35229024922</v>
+      </c>
+      <c r="Q453">
+        <v>609.4450972759608</v>
       </c>
     </row>
   </sheetData>
